--- a/通知_結合テスト.xlsx
+++ b/通知_結合テスト.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/ketugou-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{116B13CA-06EB-417D-9555-FC6399ED6A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D51F326-2A3C-4527-944B-7878736EE09D}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{116B13CA-06EB-417D-9555-FC6399ED6A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87334223-1B0F-4616-8043-CAF1F381987D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="76">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -108,13 +108,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>単体テスト</t>
-    <rPh sb="0" eb="2">
-      <t>タンタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
@@ -847,6 +840,13 @@
     </rPh>
     <rPh sb="18" eb="20">
       <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結合テスト</t>
+    <rPh sb="0" eb="2">
+      <t>ケツゴウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -886,7 +886,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -922,24 +922,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -949,9 +938,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -959,9 +945,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1609,10 +1592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="79" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1629,46 +1612,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="5"/>
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="6"/>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="5"/>
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="6"/>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="5"/>
+      <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="6"/>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="C4" s="3">
-        <v>45990</v>
+        <v>46001</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1702,26 +1685,26 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="4">
-        <v>45994</v>
+        <v>24</v>
+      </c>
+      <c r="G8" s="3">
+        <v>46002</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -1731,7 +1714,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1740,26 +1723,26 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G10" s="4">
-        <v>45994</v>
+      <c r="G10" s="3">
+        <v>46002</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I10" s="2"/>
     </row>
@@ -1769,7 +1752,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1778,26 +1761,26 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="4">
-        <v>45994</v>
+        <v>48</v>
+      </c>
+      <c r="G12" s="3">
+        <v>46002</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I12" s="2"/>
     </row>
@@ -1807,7 +1790,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1820,7 +1803,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1829,26 +1812,26 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="4">
-        <v>45998</v>
+      <c r="G15" s="3">
+        <v>46002</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I15" s="2"/>
     </row>
@@ -1858,10 +1841,10 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="4"/>
+      <c r="G16" s="3"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
@@ -1871,7 +1854,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1880,26 +1863,26 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="4">
-        <v>45994</v>
+        <v>49</v>
+      </c>
+      <c r="G18" s="3">
+        <v>46002</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I18" s="2"/>
     </row>
@@ -1909,7 +1892,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1922,7 +1905,7 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1931,26 +1914,26 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" s="4">
-        <v>45994</v>
+        <v>50</v>
+      </c>
+      <c r="G21" s="3">
+        <v>46002</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I21" s="2"/>
     </row>
@@ -1960,7 +1943,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -1973,7 +1956,7 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -1982,26 +1965,26 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G24" s="4">
-        <v>45998</v>
+      <c r="G24" s="3">
+        <v>46002</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I24" s="2"/>
     </row>
@@ -2011,7 +1994,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -2024,7 +2007,7 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -2033,26 +2016,26 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27" s="4">
-        <v>45994</v>
+        <v>51</v>
+      </c>
+      <c r="G27" s="3">
+        <v>46002</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I27" s="2"/>
     </row>
@@ -2062,7 +2045,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -2070,42 +2053,42 @@
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
       <c r="E29" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="5">
-        <v>10</v>
+      <c r="A30" s="4">
+        <v>9</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5" t="s">
-        <v>30</v>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G30" s="4">
-        <v>45994</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I30" s="5"/>
+        <v>52</v>
+      </c>
+      <c r="G30" s="3">
+        <v>46002</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="4"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2"/>
@@ -2113,7 +2096,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -2126,7 +2109,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -2135,26 +2118,26 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G33" s="4">
-        <v>45998</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>17</v>
+      <c r="G33" s="3">
+        <v>46002</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I33" s="2"/>
     </row>
@@ -2164,7 +2147,7 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -2177,7 +2160,7 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -2186,26 +2169,26 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G36" s="4">
-        <v>45994</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>17</v>
+        <v>53</v>
+      </c>
+      <c r="G36" s="3">
+        <v>46002</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I36" s="2"/>
     </row>
@@ -2215,7 +2198,7 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -2228,7 +2211,7 @@
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -2237,26 +2220,26 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G39" s="4">
-        <v>45994</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>17</v>
+        <v>54</v>
+      </c>
+      <c r="G39" s="3">
+        <v>46002</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I39" s="2"/>
     </row>
@@ -2266,7 +2249,7 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -2279,7 +2262,7 @@
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -2288,26 +2271,26 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G42" s="4">
-        <v>45994</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>17</v>
+        <v>54</v>
+      </c>
+      <c r="G42" s="3">
+        <v>46002</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I42" s="2"/>
     </row>
@@ -2317,7 +2300,7 @@
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -2330,7 +2313,7 @@
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -2339,26 +2322,26 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G45" s="4">
-        <v>45994</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>17</v>
+        <v>54</v>
+      </c>
+      <c r="G45" s="3">
+        <v>46002</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I45" s="2"/>
     </row>
@@ -2368,7 +2351,7 @@
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -2381,7 +2364,7 @@
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -2390,26 +2373,26 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G48" s="4">
-        <v>45998</v>
+      <c r="G48" s="3">
+        <v>46002</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I48" s="2"/>
     </row>
@@ -2419,7 +2402,7 @@
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -2428,26 +2411,26 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G50" s="4">
-        <v>45991</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>17</v>
+      <c r="G50" s="3">
+        <v>46002</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I50" s="2"/>
     </row>
@@ -2464,26 +2447,26 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G52" s="4">
-        <v>45998</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>17</v>
+      <c r="G52" s="3">
+        <v>46002</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I52" s="2"/>
     </row>
@@ -2493,36 +2476,86 @@
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="D54" t="s">
+      <c r="A54" s="2">
+        <v>18</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G54" s="3">
+        <v>46002</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="2">
+        <v>19</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E54" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F54" s="7" t="s">
+      <c r="E56" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="D56" t="s">
-        <v>69</v>
-      </c>
-      <c r="E56" t="s">
-        <v>74</v>
-      </c>
-      <c r="F56" t="s">
-        <v>73</v>
-      </c>
+      <c r="G56" s="3">
+        <v>46002</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
